--- a/Estimacion_paarametros_OU.xlsx
+++ b/Estimacion_paarametros_OU.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uexternadoedu-my.sharepoint.com/personal/jorfan_vargas_est_uexternado_edu_co/Documents/Semestre 4/Proyectofinal_Bayesiana_Pensmaiento2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uexternadoedu-my.sharepoint.com/personal/jorfan_vargas_est_uexternado_edu_co/Documents/Universidad/Semestre 4/Proyectofinal_Bayesiana_Pensmaiento2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="316" documentId="8_{3A716769-3A54-47E7-B832-C064711418F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EFE550E7-D9A6-4EA4-A40A-34D301CBBA7F}"/>
+  <xr:revisionPtr revIDLastSave="331" documentId="8_{3A716769-3A54-47E7-B832-C064711418F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BFB795DD-A2DC-4995-81EA-960816E4D341}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{97210E22-E74F-4679-BEA5-349A0861C135}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{97210E22-E74F-4679-BEA5-349A0861C135}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="47">
   <si>
     <t>S i+1</t>
   </si>
@@ -174,6 +175,9 @@
   </si>
   <si>
     <t>estimación varianza</t>
+  </si>
+  <si>
+    <t>Errores</t>
   </si>
 </sst>
 </file>
@@ -290,14 +294,14 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -313,6 +317,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -614,20 +622,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2A9F1E1-98BA-49A2-BD28-E82F16B8DED7}">
   <dimension ref="A2:S51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="101" workbookViewId="0">
+    <sheetView topLeftCell="A14" zoomScale="94" workbookViewId="0">
       <selection activeCell="S49" sqref="S49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="1:18" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
@@ -656,7 +664,7 @@
       <c r="D5" s="4">
         <v>1.76</v>
       </c>
-      <c r="F5" s="11" t="s">
+      <c r="F5" s="9" t="s">
         <v>27</v>
       </c>
       <c r="G5" s="4">
@@ -677,7 +685,7 @@
       <c r="D6" s="4">
         <v>1.2693000000000001</v>
       </c>
-      <c r="F6" s="11" t="s">
+      <c r="F6" s="9" t="s">
         <v>28</v>
       </c>
       <c r="G6" s="4">
@@ -701,7 +709,7 @@
       <c r="D7" s="4">
         <v>1.196</v>
       </c>
-      <c r="F7" s="11" t="s">
+      <c r="F7" s="9" t="s">
         <v>29</v>
       </c>
       <c r="G7" s="4">
@@ -1131,13 +1139,13 @@
       </c>
     </row>
     <row r="28" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C28" s="9" t="s">
+      <c r="C28" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="9"/>
-      <c r="G28" s="9"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="12"/>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
@@ -1168,7 +1176,7 @@
         <f>SUM(C32:C51)</f>
         <v>22.530200000000004</v>
       </c>
-      <c r="M31" s="11" t="s">
+      <c r="M31" s="9" t="s">
         <v>28</v>
       </c>
       <c r="N31" s="4">
@@ -1208,7 +1216,7 @@
         <f>SUM(D32:D51)</f>
         <v>20.153400000000005</v>
       </c>
-      <c r="M32" s="11" t="s">
+      <c r="M32" s="9" t="s">
         <v>27</v>
       </c>
       <c r="N32" s="4">
@@ -1248,7 +1256,7 @@
         <f>SUM(F32:F51)</f>
         <v>30.833924879999998</v>
       </c>
-      <c r="M33" s="11" t="s">
+      <c r="M33" s="9" t="s">
         <v>29</v>
       </c>
       <c r="N33" s="4">
@@ -1706,7 +1714,7 @@
         <f t="shared" si="2"/>
         <v>0.64306297999999995</v>
       </c>
-      <c r="S49" s="12"/>
+      <c r="S49" s="10"/>
     </row>
     <row r="50" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A50" s="4">
@@ -1767,4 +1775,539 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D60632C0-9811-411C-9BAD-B9A52C8FB817}">
+  <dimension ref="A1:G34"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G35" sqref="G35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1238</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1793</v>
+      </c>
+      <c r="B3">
+        <v>1289</v>
+      </c>
+      <c r="C3">
+        <f>A3-B3</f>
+        <v>504</v>
+      </c>
+      <c r="D3">
+        <f>C3*C3</f>
+        <v>254016</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1266</v>
+      </c>
+      <c r="B4">
+        <v>1579</v>
+      </c>
+      <c r="C4">
+        <f t="shared" ref="C4:C33" si="0">A4-B4</f>
+        <v>-313</v>
+      </c>
+      <c r="D4">
+        <f t="shared" ref="D4:D33" si="1">C4*C4</f>
+        <v>97969</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1750</v>
+      </c>
+      <c r="B5">
+        <v>1274</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>476</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="1"/>
+        <v>226576</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1744</v>
+      </c>
+      <c r="B6">
+        <v>1542</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>202</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="1"/>
+        <v>40804</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>1245</v>
+      </c>
+      <c r="B7">
+        <v>1414</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>-169</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="1"/>
+        <v>28561</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>1452</v>
+      </c>
+      <c r="B8">
+        <v>1301</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>151</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="1"/>
+        <v>22801</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>1455</v>
+      </c>
+      <c r="B9">
+        <v>1613</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>-158</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="1"/>
+        <v>24964</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>1800</v>
+      </c>
+      <c r="B10">
+        <v>1477</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>323</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="1"/>
+        <v>104329</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>1546</v>
+      </c>
+      <c r="B11">
+        <v>1349</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="0"/>
+        <v>197</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="1"/>
+        <v>38809</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>1221</v>
+      </c>
+      <c r="B12">
+        <v>1594</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="0"/>
+        <v>-373</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="1"/>
+        <v>139129</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>1532</v>
+      </c>
+      <c r="B13">
+        <v>1545</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="0"/>
+        <v>-13</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="1"/>
+        <v>169</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>1482</v>
+      </c>
+      <c r="B14">
+        <v>1214</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="0"/>
+        <v>268</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="1"/>
+        <v>71824</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>1789</v>
+      </c>
+      <c r="B15">
+        <v>1286</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="0"/>
+        <v>503</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="1"/>
+        <v>253009</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>1302</v>
+      </c>
+      <c r="B16">
+        <v>1438</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="0"/>
+        <v>-136</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="1"/>
+        <v>18496</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>1431</v>
+      </c>
+      <c r="B17">
+        <v>1684</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="0"/>
+        <v>-253</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="1"/>
+        <v>64009</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>1743</v>
+      </c>
+      <c r="B18">
+        <v>1575</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="0"/>
+        <v>168</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="1"/>
+        <v>28224</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>1565</v>
+      </c>
+      <c r="B19">
+        <v>1526</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="1"/>
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>1380</v>
+      </c>
+      <c r="B20">
+        <v>1625</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="0"/>
+        <v>-245</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="1"/>
+        <v>60025</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>1702</v>
+      </c>
+      <c r="B21">
+        <v>1290</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="0"/>
+        <v>412</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="1"/>
+        <v>169744</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>1330</v>
+      </c>
+      <c r="B22">
+        <v>1480</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="0"/>
+        <v>-150</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="1"/>
+        <v>22500</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>1250</v>
+      </c>
+      <c r="B23">
+        <v>1643</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="0"/>
+        <v>-393</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="1"/>
+        <v>154449</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>1455</v>
+      </c>
+      <c r="B24">
+        <v>1629</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="0"/>
+        <v>-174</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="1"/>
+        <v>30276</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>1729</v>
+      </c>
+      <c r="B25">
+        <v>1377</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="0"/>
+        <v>352</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="1"/>
+        <v>123904</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>1333</v>
+      </c>
+      <c r="B26">
+        <v>1422</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="0"/>
+        <v>-89</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="1"/>
+        <v>7921</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>1674</v>
+      </c>
+      <c r="B27">
+        <v>1213</v>
+      </c>
+      <c r="C27">
+        <f t="shared" si="0"/>
+        <v>461</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="1"/>
+        <v>212521</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>1656</v>
+      </c>
+      <c r="B28">
+        <v>1336</v>
+      </c>
+      <c r="C28">
+        <f t="shared" si="0"/>
+        <v>320</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="1"/>
+        <v>102400</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>1241</v>
+      </c>
+      <c r="B29">
+        <v>1532</v>
+      </c>
+      <c r="C29">
+        <f t="shared" si="0"/>
+        <v>-291</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="1"/>
+        <v>84681</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>1246</v>
+      </c>
+      <c r="B30">
+        <v>1304</v>
+      </c>
+      <c r="C30">
+        <f t="shared" si="0"/>
+        <v>-58</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="1"/>
+        <v>3364</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>1410</v>
+      </c>
+      <c r="B31">
+        <v>1605</v>
+      </c>
+      <c r="C31">
+        <f t="shared" si="0"/>
+        <v>-195</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="1"/>
+        <v>38025</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>1714</v>
+      </c>
+      <c r="B32">
+        <v>1297</v>
+      </c>
+      <c r="C32">
+        <f t="shared" si="0"/>
+        <v>417</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="1"/>
+        <v>173889</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>1289</v>
+      </c>
+      <c r="B33">
+        <v>1435</v>
+      </c>
+      <c r="C33">
+        <f t="shared" si="0"/>
+        <v>-146</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="1"/>
+        <v>21316</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D34">
+        <f>SUM(D3:D33)</f>
+        <v>2620225</v>
+      </c>
+      <c r="F34">
+        <f>D34/30</f>
+        <v>87340.833333333328</v>
+      </c>
+      <c r="G34">
+        <f>SQRT(F34)</f>
+        <v>295.53482592299224</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>